--- a/New_StarChallenge/Config.xlsx
+++ b/New_StarChallenge/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/New_StarChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE7B05A-B004-AF4D-85F5-C29D28D32A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B128CB-A407-204E-BA70-38D9EF4A1E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="138">
   <si>
     <t>Easy</t>
   </si>
@@ -446,12 +446,15 @@
   <si>
     <t>最高级</t>
   </si>
+  <si>
+    <t>传奇钻石宝箱</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -507,6 +510,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -646,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -677,6 +686,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7873,8 +7884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA756A6-BA2A-8741-B2F7-B02AB3EF73C4}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="N191" sqref="N191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -7962,7 +7973,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="30" t="s">
         <v>77</v>
       </c>
       <c r="J3" s="29">
@@ -8246,7 +8257,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="28">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C13" s="28">
         <v>0</v>
@@ -8276,7 +8287,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="28">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C14" s="28">
         <v>0</v>
@@ -8306,7 +8317,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="28">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C15" s="28">
         <v>0</v>
@@ -8336,16 +8347,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="28">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C16" s="28">
         <v>0</v>
       </c>
       <c r="D16" s="28">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E16" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="28">
         <v>0</v>
@@ -8355,7 +8366,7 @@
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="28" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="J16" s="29">
         <v>15</v>
@@ -8366,7 +8377,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="28">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C17" s="28">
         <v>0</v>
@@ -8396,7 +8407,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="28">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C18" s="28">
         <v>0</v>
@@ -8426,7 +8437,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="28">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C19" s="28">
         <v>0</v>
@@ -8456,7 +8467,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="28">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C20" s="28">
         <v>0</v>
@@ -8486,7 +8497,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="28">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C21" s="28">
         <v>0</v>
@@ -8516,7 +8527,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="28">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="C22" s="28">
         <v>3</v>
@@ -8548,7 +8559,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="28">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C23" s="28">
         <v>0</v>
@@ -8578,7 +8589,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="28">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="C24" s="28">
         <v>0</v>
@@ -8608,7 +8619,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="28">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="C25" s="28">
         <v>0</v>
@@ -8638,16 +8649,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="28">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="C26" s="28">
         <v>0</v>
       </c>
       <c r="D26" s="28">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E26" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="28">
         <v>0</v>
@@ -8657,7 +8668,7 @@
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J26" s="29">
         <v>20</v>
@@ -8668,7 +8679,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="28">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="C27" s="28">
         <v>0</v>
@@ -8698,7 +8709,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="28">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="C28" s="28">
         <v>0</v>
@@ -8728,7 +8739,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="28">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="C29" s="28">
         <v>0</v>
@@ -8758,7 +8769,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="28">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C30" s="28">
         <v>0</v>
@@ -8818,7 +8829,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="28">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C32" s="28">
         <v>3</v>
@@ -8850,7 +8861,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="28">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="C33" s="28">
         <v>0</v>
@@ -8880,7 +8891,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="28">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="C34" s="28">
         <v>0</v>
@@ -8910,7 +8921,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="28">
-        <v>520</v>
+        <v>590</v>
       </c>
       <c r="C35" s="28">
         <v>0</v>
@@ -8940,16 +8951,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="28">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="C36" s="28">
         <v>0</v>
       </c>
       <c r="D36" s="28">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E36" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="28">
         <v>0</v>
@@ -8959,7 +8970,7 @@
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="28" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="J36" s="29">
         <v>30</v>
@@ -8970,7 +8981,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="28">
-        <v>580</v>
+        <v>710</v>
       </c>
       <c r="C37" s="28">
         <v>0</v>
@@ -9000,7 +9011,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="28">
-        <v>630</v>
+        <v>770</v>
       </c>
       <c r="C38" s="28">
         <v>0</v>
@@ -9030,7 +9041,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="28">
-        <v>680</v>
+        <v>840</v>
       </c>
       <c r="C39" s="28">
         <v>0</v>
@@ -9060,7 +9071,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="28">
-        <v>730</v>
+        <v>910</v>
       </c>
       <c r="C40" s="28">
         <v>0</v>
@@ -9090,7 +9101,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="28">
-        <v>780</v>
+        <v>980</v>
       </c>
       <c r="C41" s="28">
         <v>0</v>
@@ -9120,7 +9131,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="28">
-        <v>830</v>
+        <v>1050</v>
       </c>
       <c r="C42" s="28">
         <v>3</v>
@@ -9129,7 +9140,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F42" s="28">
         <v>0</v>
@@ -9138,8 +9149,8 @@
         <v>6</v>
       </c>
       <c r="H42" s="29"/>
-      <c r="I42" s="28" t="s">
-        <v>102</v>
+      <c r="I42" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="J42" s="29">
         <v>50</v>
@@ -9150,7 +9161,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="28">
-        <v>890</v>
+        <v>1130</v>
       </c>
       <c r="C43" s="28">
         <v>0</v>
@@ -9180,7 +9191,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="28">
-        <v>950</v>
+        <v>1210</v>
       </c>
       <c r="C44" s="28">
         <v>0</v>
@@ -9210,7 +9221,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="28">
-        <v>1010</v>
+        <v>1290</v>
       </c>
       <c r="C45" s="28">
         <v>0</v>
@@ -9240,16 +9251,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="28">
-        <v>1070</v>
+        <v>1370</v>
       </c>
       <c r="C46" s="28">
         <v>0</v>
       </c>
       <c r="D46" s="28">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E46" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="28">
         <v>0</v>
@@ -9259,7 +9270,7 @@
       </c>
       <c r="H46" s="29"/>
       <c r="I46" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J46" s="29">
         <v>60</v>
@@ -9270,7 +9281,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="28">
-        <v>1130</v>
+        <v>1460</v>
       </c>
       <c r="C47" s="28">
         <v>0</v>
@@ -9300,7 +9311,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="28">
-        <v>1190</v>
+        <v>1550</v>
       </c>
       <c r="C48" s="28">
         <v>0</v>
@@ -9330,7 +9341,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="28">
-        <v>1250</v>
+        <v>1640</v>
       </c>
       <c r="C49" s="28">
         <v>0</v>
@@ -9360,7 +9371,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="28">
-        <v>1310</v>
+        <v>1740</v>
       </c>
       <c r="C50" s="28">
         <v>0</v>
@@ -9390,7 +9401,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="28">
-        <v>1370</v>
+        <v>1840</v>
       </c>
       <c r="C51" s="28">
         <v>0</v>
@@ -9420,7 +9431,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="28">
-        <v>1430</v>
+        <v>1940</v>
       </c>
       <c r="C52" s="28">
         <v>3</v>
@@ -9429,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F52" s="28">
         <v>0</v>
@@ -9438,8 +9449,8 @@
         <v>6</v>
       </c>
       <c r="H52" s="29"/>
-      <c r="I52" s="28" t="s">
-        <v>117</v>
+      <c r="I52" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="J52" s="29">
         <v>60</v>
@@ -9450,7 +9461,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="28">
-        <v>1550</v>
+        <v>2100</v>
       </c>
       <c r="C53" s="28">
         <v>3</v>
@@ -9480,7 +9491,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="28">
-        <v>1670</v>
+        <v>2260</v>
       </c>
       <c r="C54" s="28">
         <v>0</v>
@@ -9510,7 +9521,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="28">
-        <v>1790</v>
+        <v>2420</v>
       </c>
       <c r="C55" s="28">
         <v>0</v>
@@ -9540,7 +9551,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="28">
-        <v>1910</v>
+        <v>2580</v>
       </c>
       <c r="C56" s="28">
         <v>0</v>
@@ -9570,7 +9581,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="28">
-        <v>2030</v>
+        <v>2740</v>
       </c>
       <c r="C57" s="28">
         <v>3</v>
@@ -9600,7 +9611,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="28">
-        <v>2150</v>
+        <v>2900</v>
       </c>
       <c r="C58" s="28">
         <v>0</v>
@@ -9630,7 +9641,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="28">
-        <v>2270</v>
+        <v>3060</v>
       </c>
       <c r="C59" s="28">
         <v>0</v>
@@ -9660,7 +9671,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="28">
-        <v>2390</v>
+        <v>3220</v>
       </c>
       <c r="C60" s="28">
         <v>0</v>
@@ -9690,7 +9701,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="28">
-        <v>2510</v>
+        <v>3380</v>
       </c>
       <c r="C61" s="28">
         <v>3</v>
@@ -9720,7 +9731,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="28">
-        <v>2630</v>
+        <v>3540</v>
       </c>
       <c r="C62" s="28">
         <v>0</v>
@@ -9750,7 +9761,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="28">
-        <v>2750</v>
+        <v>3700</v>
       </c>
       <c r="C63" s="28">
         <v>0</v>
@@ -9780,7 +9791,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="28">
-        <v>2870</v>
+        <v>3860</v>
       </c>
       <c r="C64" s="28">
         <v>0</v>
@@ -9810,7 +9821,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="28">
-        <v>2990</v>
+        <v>4020</v>
       </c>
       <c r="C65" s="28">
         <v>3</v>
@@ -9840,7 +9851,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="28">
-        <v>3110</v>
+        <v>4180</v>
       </c>
       <c r="C66" s="28">
         <v>0</v>
@@ -9870,7 +9881,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="28">
-        <v>3230</v>
+        <v>4340</v>
       </c>
       <c r="C67" s="28">
         <v>0</v>
@@ -9900,7 +9911,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="28">
-        <v>3350</v>
+        <v>4500</v>
       </c>
       <c r="C68" s="28">
         <v>0</v>
@@ -9930,7 +9941,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="28">
-        <v>3470</v>
+        <v>4660</v>
       </c>
       <c r="C69" s="28">
         <v>3</v>
@@ -9960,7 +9971,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="28">
-        <v>3590</v>
+        <v>4820</v>
       </c>
       <c r="C70" s="28">
         <v>0</v>
@@ -9990,7 +10001,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="28">
-        <v>3710</v>
+        <v>4980</v>
       </c>
       <c r="C71" s="28">
         <v>0</v>
@@ -10020,7 +10031,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="28">
-        <v>3830</v>
+        <v>5140</v>
       </c>
       <c r="C72" s="28">
         <v>0</v>
@@ -10050,7 +10061,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="28">
-        <v>3950</v>
+        <v>5300</v>
       </c>
       <c r="C73" s="28">
         <v>3</v>
@@ -10080,7 +10091,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="28">
-        <v>4070</v>
+        <v>5460</v>
       </c>
       <c r="C74" s="28">
         <v>0</v>
@@ -10110,7 +10121,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="28">
-        <v>4190</v>
+        <v>5620</v>
       </c>
       <c r="C75" s="28">
         <v>0</v>
@@ -10140,7 +10151,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="28">
-        <v>4310</v>
+        <v>5780</v>
       </c>
       <c r="C76" s="28">
         <v>0</v>
@@ -10170,7 +10181,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="28">
-        <v>4430</v>
+        <v>5940</v>
       </c>
       <c r="C77" s="28">
         <v>3</v>
@@ -10200,7 +10211,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="28">
-        <v>4550</v>
+        <v>6100</v>
       </c>
       <c r="C78" s="28">
         <v>0</v>
@@ -10230,7 +10241,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="28">
-        <v>4670</v>
+        <v>6260</v>
       </c>
       <c r="C79" s="28">
         <v>0</v>
@@ -10260,7 +10271,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="28">
-        <v>4790</v>
+        <v>6420</v>
       </c>
       <c r="C80" s="28">
         <v>0</v>
@@ -10290,7 +10301,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="28">
-        <v>4910</v>
+        <v>6580</v>
       </c>
       <c r="C81" s="28">
         <v>3</v>
@@ -10320,7 +10331,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="28">
-        <v>5030</v>
+        <v>6740</v>
       </c>
       <c r="C82" s="28">
         <v>0</v>
@@ -10350,7 +10361,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="28">
-        <v>5150</v>
+        <v>6900</v>
       </c>
       <c r="C83" s="28">
         <v>0</v>
@@ -10380,7 +10391,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="28">
-        <v>5270</v>
+        <v>7060</v>
       </c>
       <c r="C84" s="28">
         <v>0</v>
@@ -10410,7 +10421,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="28">
-        <v>5390</v>
+        <v>7220</v>
       </c>
       <c r="C85" s="28">
         <v>3</v>
@@ -10440,7 +10451,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="28">
-        <v>5510</v>
+        <v>7380</v>
       </c>
       <c r="C86" s="28">
         <v>0</v>
@@ -10470,7 +10481,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="28">
-        <v>5630</v>
+        <v>7540</v>
       </c>
       <c r="C87" s="28">
         <v>0</v>
@@ -10500,7 +10511,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="28">
-        <v>5750</v>
+        <v>7700</v>
       </c>
       <c r="C88" s="28">
         <v>0</v>
@@ -10530,7 +10541,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="28">
-        <v>5870</v>
+        <v>7860</v>
       </c>
       <c r="C89" s="28">
         <v>3</v>
@@ -10560,7 +10571,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="28">
-        <v>5990</v>
+        <v>8020</v>
       </c>
       <c r="C90" s="28">
         <v>0</v>
@@ -10590,7 +10601,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="28">
-        <v>6110</v>
+        <v>8180</v>
       </c>
       <c r="C91" s="28">
         <v>0</v>
@@ -10620,7 +10631,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="28">
-        <v>6230</v>
+        <v>8340</v>
       </c>
       <c r="C92" s="28">
         <v>0</v>
@@ -10650,7 +10661,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="28">
-        <v>6350</v>
+        <v>8500</v>
       </c>
       <c r="C93" s="28">
         <v>3</v>
@@ -10680,7 +10691,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="28">
-        <v>6470</v>
+        <v>8660</v>
       </c>
       <c r="C94" s="28">
         <v>0</v>
@@ -10710,7 +10721,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="28">
-        <v>6590</v>
+        <v>8820</v>
       </c>
       <c r="C95" s="28">
         <v>0</v>
@@ -10740,7 +10751,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="28">
-        <v>6710</v>
+        <v>8980</v>
       </c>
       <c r="C96" s="28">
         <v>0</v>
@@ -10770,7 +10781,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="28">
-        <v>6830</v>
+        <v>9140</v>
       </c>
       <c r="C97" s="28">
         <v>3</v>
@@ -10800,7 +10811,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="28">
-        <v>6950</v>
+        <v>9300</v>
       </c>
       <c r="C98" s="28">
         <v>0</v>
@@ -10830,7 +10841,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="28">
-        <v>7070</v>
+        <v>9460</v>
       </c>
       <c r="C99" s="28">
         <v>0</v>
@@ -10860,7 +10871,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="28">
-        <v>7190</v>
+        <v>9620</v>
       </c>
       <c r="C100" s="28">
         <v>0</v>
@@ -10890,7 +10901,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="28">
-        <v>7310</v>
+        <v>9780</v>
       </c>
       <c r="C101" s="28">
         <v>3</v>
@@ -10920,7 +10931,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="28">
-        <v>7430</v>
+        <v>9940</v>
       </c>
       <c r="C102" s="28">
         <v>0</v>
@@ -10950,7 +10961,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="28">
-        <v>7550</v>
+        <v>10100</v>
       </c>
       <c r="C103" s="28">
         <v>0</v>
@@ -10980,7 +10991,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="28">
-        <v>7670</v>
+        <v>10260</v>
       </c>
       <c r="C104" s="28">
         <v>0</v>
@@ -11010,7 +11021,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="28">
-        <v>7790</v>
+        <v>10420</v>
       </c>
       <c r="C105" s="28">
         <v>3</v>
@@ -11040,7 +11051,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="28">
-        <v>7910</v>
+        <v>10580</v>
       </c>
       <c r="C106" s="28">
         <v>0</v>
@@ -11070,7 +11081,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="28">
-        <v>8030</v>
+        <v>10740</v>
       </c>
       <c r="C107" s="28">
         <v>0</v>
@@ -11100,7 +11111,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="28">
-        <v>8150</v>
+        <v>10900</v>
       </c>
       <c r="C108" s="28">
         <v>0</v>
@@ -11130,7 +11141,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="28">
-        <v>8270</v>
+        <v>11060</v>
       </c>
       <c r="C109" s="28">
         <v>3</v>
@@ -11160,7 +11171,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="28">
-        <v>8390</v>
+        <v>11220</v>
       </c>
       <c r="C110" s="28">
         <v>0</v>
@@ -11190,7 +11201,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="28">
-        <v>8510</v>
+        <v>11380</v>
       </c>
       <c r="C111" s="28">
         <v>0</v>
@@ -11220,7 +11231,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="28">
-        <v>8630</v>
+        <v>11540</v>
       </c>
       <c r="C112" s="28">
         <v>0</v>
@@ -11250,7 +11261,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="28">
-        <v>8750</v>
+        <v>11700</v>
       </c>
       <c r="C113" s="28">
         <v>3</v>
@@ -11280,7 +11291,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="28">
-        <v>8870</v>
+        <v>11860</v>
       </c>
       <c r="C114" s="28">
         <v>0</v>
@@ -11310,7 +11321,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="28">
-        <v>8990</v>
+        <v>12020</v>
       </c>
       <c r="C115" s="28">
         <v>0</v>
@@ -11340,7 +11351,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="28">
-        <v>9110</v>
+        <v>12180</v>
       </c>
       <c r="C116" s="28">
         <v>0</v>
@@ -11370,7 +11381,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="28">
-        <v>9230</v>
+        <v>12340</v>
       </c>
       <c r="C117" s="28">
         <v>3</v>
@@ -11400,7 +11411,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="28">
-        <v>9350</v>
+        <v>12500</v>
       </c>
       <c r="C118" s="28">
         <v>0</v>
@@ -11430,7 +11441,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="28">
-        <v>9470</v>
+        <v>12660</v>
       </c>
       <c r="C119" s="28">
         <v>0</v>
@@ -11460,7 +11471,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="28">
-        <v>9590</v>
+        <v>12820</v>
       </c>
       <c r="C120" s="28">
         <v>0</v>
@@ -11490,7 +11501,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="28">
-        <v>9710</v>
+        <v>12980</v>
       </c>
       <c r="C121" s="28">
         <v>3</v>
@@ -11520,7 +11531,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="28">
-        <v>9830</v>
+        <v>13140</v>
       </c>
       <c r="C122" s="28">
         <v>0</v>
@@ -11550,7 +11561,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="28">
-        <v>9950</v>
+        <v>13300</v>
       </c>
       <c r="C123" s="28">
         <v>0</v>
@@ -11580,7 +11591,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="28">
-        <v>10070</v>
+        <v>13460</v>
       </c>
       <c r="C124" s="28">
         <v>0</v>
@@ -11610,7 +11621,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="28">
-        <v>10190</v>
+        <v>13620</v>
       </c>
       <c r="C125" s="28">
         <v>3</v>
@@ -11640,7 +11651,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="28">
-        <v>10310</v>
+        <v>13780</v>
       </c>
       <c r="C126" s="28">
         <v>0</v>
@@ -11652,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="F126" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" s="28">
         <v>5</v>
@@ -11670,7 +11681,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="28">
-        <v>10430</v>
+        <v>13940</v>
       </c>
       <c r="C127" s="28">
         <v>0</v>
@@ -11700,7 +11711,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="28">
-        <v>10550</v>
+        <v>14100</v>
       </c>
       <c r="C128" s="28">
         <v>0</v>
@@ -11730,7 +11741,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="28">
-        <v>10670</v>
+        <v>14260</v>
       </c>
       <c r="C129" s="28">
         <v>3</v>
@@ -11760,7 +11771,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="28">
-        <v>10790</v>
+        <v>14420</v>
       </c>
       <c r="C130" s="28">
         <v>0</v>
@@ -11790,7 +11801,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="28">
-        <v>10910</v>
+        <v>14580</v>
       </c>
       <c r="C131" s="28">
         <v>0</v>
@@ -11820,7 +11831,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="28">
-        <v>11030</v>
+        <v>14740</v>
       </c>
       <c r="C132" s="28">
         <v>0</v>
@@ -11850,7 +11861,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="28">
-        <v>11150</v>
+        <v>14900</v>
       </c>
       <c r="C133" s="28">
         <v>3</v>
@@ -11880,7 +11891,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="28">
-        <v>11270</v>
+        <v>15060</v>
       </c>
       <c r="C134" s="28">
         <v>0</v>
@@ -11892,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="F134" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G134" s="28">
         <v>5</v>
@@ -11910,7 +11921,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="28">
-        <v>11390</v>
+        <v>15220</v>
       </c>
       <c r="C135" s="28">
         <v>0</v>
@@ -11940,7 +11951,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="28">
-        <v>11510</v>
+        <v>15380</v>
       </c>
       <c r="C136" s="28">
         <v>0</v>
@@ -11970,7 +11981,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="28">
-        <v>11630</v>
+        <v>15540</v>
       </c>
       <c r="C137" s="28">
         <v>3</v>
@@ -12000,7 +12011,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="28">
-        <v>11750</v>
+        <v>15700</v>
       </c>
       <c r="C138" s="28">
         <v>0</v>
@@ -12030,7 +12041,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="28">
-        <v>11870</v>
+        <v>15860</v>
       </c>
       <c r="C139" s="28">
         <v>0</v>
@@ -12060,7 +12071,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="28">
-        <v>11990</v>
+        <v>16020</v>
       </c>
       <c r="C140" s="28">
         <v>0</v>
@@ -12090,7 +12101,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="28">
-        <v>12110</v>
+        <v>16180</v>
       </c>
       <c r="C141" s="28">
         <v>3</v>
@@ -12116,339 +12127,787 @@
       </c>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="29"/>
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="29"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="29"/>
+      <c r="A142" s="28">
+        <v>141</v>
+      </c>
+      <c r="B142" s="31">
+        <v>16340</v>
+      </c>
+      <c r="C142" s="28">
+        <v>0</v>
+      </c>
+      <c r="D142" s="28">
+        <v>2</v>
+      </c>
+      <c r="E142" s="28">
+        <v>0</v>
+      </c>
+      <c r="F142" s="28">
+        <v>1</v>
+      </c>
+      <c r="G142" s="28">
+        <v>5</v>
+      </c>
       <c r="H142" s="29"/>
-      <c r="I142" s="29"/>
+      <c r="I142" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="J142" s="29"/>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="29"/>
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="29"/>
+      <c r="A143" s="28">
+        <v>142</v>
+      </c>
+      <c r="B143" s="31">
+        <v>16500</v>
+      </c>
+      <c r="C143" s="28">
+        <v>0</v>
+      </c>
+      <c r="D143" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E143" s="28">
+        <v>0</v>
+      </c>
+      <c r="F143" s="28">
+        <v>0</v>
+      </c>
+      <c r="G143" s="28">
+        <v>3</v>
+      </c>
       <c r="H143" s="29"/>
-      <c r="I143" s="29"/>
+      <c r="I143" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="J143" s="29"/>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="29"/>
-      <c r="B144" s="29"/>
-      <c r="C144" s="29"/>
-      <c r="D144" s="29"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="29"/>
-      <c r="G144" s="29"/>
+      <c r="A144" s="28">
+        <v>143</v>
+      </c>
+      <c r="B144" s="31">
+        <v>16660</v>
+      </c>
+      <c r="C144" s="28">
+        <v>0</v>
+      </c>
+      <c r="D144" s="28">
+        <v>2</v>
+      </c>
+      <c r="E144" s="28">
+        <v>3</v>
+      </c>
+      <c r="F144" s="28">
+        <v>0</v>
+      </c>
+      <c r="G144" s="28">
+        <v>7</v>
+      </c>
       <c r="H144" s="29"/>
-      <c r="I144" s="29"/>
+      <c r="I144" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="J144" s="29"/>
     </row>
     <row r="145" spans="1:10">
-      <c r="A145" s="29"/>
-      <c r="B145" s="29"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
+      <c r="A145" s="28">
+        <v>144</v>
+      </c>
+      <c r="B145" s="31">
+        <v>16820</v>
+      </c>
+      <c r="C145" s="28">
+        <v>3</v>
+      </c>
+      <c r="D145" s="28">
+        <v>1</v>
+      </c>
+      <c r="E145" s="28">
+        <v>3</v>
+      </c>
+      <c r="F145" s="28">
+        <v>0</v>
+      </c>
+      <c r="G145" s="28">
+        <v>6</v>
+      </c>
       <c r="H145" s="29"/>
-      <c r="I145" s="29"/>
+      <c r="I145" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="J145" s="29"/>
     </row>
     <row r="146" spans="1:10">
-      <c r="A146" s="29"/>
-      <c r="B146" s="29"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="29"/>
-      <c r="E146" s="29"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="29"/>
+      <c r="A146" s="28">
+        <v>145</v>
+      </c>
+      <c r="B146" s="31">
+        <v>16980</v>
+      </c>
+      <c r="C146" s="28">
+        <v>0</v>
+      </c>
+      <c r="D146" s="28">
+        <v>2</v>
+      </c>
+      <c r="E146" s="28">
+        <v>0</v>
+      </c>
+      <c r="F146" s="28">
+        <v>2</v>
+      </c>
+      <c r="G146" s="28">
+        <v>5</v>
+      </c>
       <c r="H146" s="29"/>
-      <c r="I146" s="29"/>
+      <c r="I146" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="J146" s="29"/>
     </row>
     <row r="147" spans="1:10">
-      <c r="A147" s="29"/>
-      <c r="B147" s="29"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="29"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
+      <c r="A147" s="28">
+        <v>146</v>
+      </c>
+      <c r="B147" s="31">
+        <v>17140</v>
+      </c>
+      <c r="C147" s="28">
+        <v>0</v>
+      </c>
+      <c r="D147" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E147" s="28">
+        <v>0</v>
+      </c>
+      <c r="F147" s="28">
+        <v>0</v>
+      </c>
+      <c r="G147" s="28">
+        <v>3</v>
+      </c>
       <c r="H147" s="29"/>
-      <c r="I147" s="29"/>
+      <c r="I147" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="J147" s="29"/>
     </row>
     <row r="148" spans="1:10">
-      <c r="A148" s="29"/>
-      <c r="B148" s="29"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
+      <c r="A148" s="28">
+        <v>147</v>
+      </c>
+      <c r="B148" s="31">
+        <v>17300</v>
+      </c>
+      <c r="C148" s="28">
+        <v>0</v>
+      </c>
+      <c r="D148" s="28">
+        <v>2</v>
+      </c>
+      <c r="E148" s="28">
+        <v>3</v>
+      </c>
+      <c r="F148" s="28">
+        <v>0</v>
+      </c>
+      <c r="G148" s="28">
+        <v>7</v>
+      </c>
       <c r="H148" s="29"/>
-      <c r="I148" s="29"/>
+      <c r="I148" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="J148" s="29"/>
     </row>
     <row r="149" spans="1:10">
-      <c r="A149" s="29"/>
-      <c r="B149" s="29"/>
-      <c r="C149" s="29"/>
-      <c r="D149" s="29"/>
-      <c r="E149" s="29"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="29"/>
+      <c r="A149" s="28">
+        <v>148</v>
+      </c>
+      <c r="B149" s="31">
+        <v>17460</v>
+      </c>
+      <c r="C149" s="28">
+        <v>3</v>
+      </c>
+      <c r="D149" s="28">
+        <v>1</v>
+      </c>
+      <c r="E149" s="28">
+        <v>3</v>
+      </c>
+      <c r="F149" s="28">
+        <v>0</v>
+      </c>
+      <c r="G149" s="28">
+        <v>6</v>
+      </c>
       <c r="H149" s="29"/>
-      <c r="I149" s="29"/>
+      <c r="I149" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="J149" s="29"/>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" s="29"/>
-      <c r="B150" s="29"/>
-      <c r="C150" s="29"/>
-      <c r="D150" s="29"/>
-      <c r="E150" s="29"/>
-      <c r="F150" s="29"/>
-      <c r="G150" s="29"/>
+      <c r="A150" s="28">
+        <v>149</v>
+      </c>
+      <c r="B150" s="31">
+        <v>17620</v>
+      </c>
+      <c r="C150" s="28">
+        <v>0</v>
+      </c>
+      <c r="D150" s="28">
+        <v>2</v>
+      </c>
+      <c r="E150" s="28">
+        <v>0</v>
+      </c>
+      <c r="F150" s="28">
+        <v>1</v>
+      </c>
+      <c r="G150" s="28">
+        <v>5</v>
+      </c>
       <c r="H150" s="29"/>
-      <c r="I150" s="29"/>
+      <c r="I150" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="J150" s="29"/>
     </row>
     <row r="151" spans="1:10">
-      <c r="A151" s="29"/>
-      <c r="B151" s="29"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="29"/>
+      <c r="A151" s="28">
+        <v>150</v>
+      </c>
+      <c r="B151" s="31">
+        <v>17780</v>
+      </c>
+      <c r="C151" s="28">
+        <v>0</v>
+      </c>
+      <c r="D151" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E151" s="28">
+        <v>0</v>
+      </c>
+      <c r="F151" s="28">
+        <v>0</v>
+      </c>
+      <c r="G151" s="28">
+        <v>3</v>
+      </c>
       <c r="H151" s="29"/>
-      <c r="I151" s="29"/>
+      <c r="I151" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="J151" s="29"/>
     </row>
     <row r="152" spans="1:10">
-      <c r="A152" s="29"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="29"/>
+      <c r="A152" s="28">
+        <v>151</v>
+      </c>
+      <c r="B152" s="31">
+        <v>17940</v>
+      </c>
+      <c r="C152" s="28">
+        <v>0</v>
+      </c>
+      <c r="D152" s="28">
+        <v>2</v>
+      </c>
+      <c r="E152" s="28">
+        <v>3</v>
+      </c>
+      <c r="F152" s="28">
+        <v>0</v>
+      </c>
+      <c r="G152" s="28">
+        <v>7</v>
+      </c>
       <c r="H152" s="29"/>
-      <c r="I152" s="29"/>
+      <c r="I152" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="J152" s="29"/>
     </row>
     <row r="153" spans="1:10">
-      <c r="A153" s="29"/>
-      <c r="B153" s="29"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="29"/>
+      <c r="A153" s="28">
+        <v>152</v>
+      </c>
+      <c r="B153" s="31">
+        <v>18100</v>
+      </c>
+      <c r="C153" s="28">
+        <v>3</v>
+      </c>
+      <c r="D153" s="28">
+        <v>1</v>
+      </c>
+      <c r="E153" s="28">
+        <v>3</v>
+      </c>
+      <c r="F153" s="28">
+        <v>0</v>
+      </c>
+      <c r="G153" s="28">
+        <v>6</v>
+      </c>
       <c r="H153" s="29"/>
-      <c r="I153" s="29"/>
+      <c r="I153" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="J153" s="29"/>
     </row>
     <row r="154" spans="1:10">
-      <c r="A154" s="29"/>
-      <c r="B154" s="29"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="29"/>
+      <c r="A154" s="28">
+        <v>153</v>
+      </c>
+      <c r="B154" s="31">
+        <v>18260</v>
+      </c>
+      <c r="C154" s="28">
+        <v>0</v>
+      </c>
+      <c r="D154" s="28">
+        <v>2</v>
+      </c>
+      <c r="E154" s="28">
+        <v>0</v>
+      </c>
+      <c r="F154" s="28">
+        <v>2</v>
+      </c>
+      <c r="G154" s="28">
+        <v>5</v>
+      </c>
       <c r="H154" s="29"/>
-      <c r="I154" s="29"/>
+      <c r="I154" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="J154" s="29"/>
     </row>
     <row r="155" spans="1:10">
-      <c r="A155" s="29"/>
-      <c r="B155" s="29"/>
-      <c r="C155" s="29"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="29"/>
+      <c r="A155" s="28">
+        <v>154</v>
+      </c>
+      <c r="B155" s="31">
+        <v>18420</v>
+      </c>
+      <c r="C155" s="28">
+        <v>0</v>
+      </c>
+      <c r="D155" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E155" s="28">
+        <v>0</v>
+      </c>
+      <c r="F155" s="28">
+        <v>0</v>
+      </c>
+      <c r="G155" s="28">
+        <v>3</v>
+      </c>
       <c r="H155" s="29"/>
-      <c r="I155" s="29"/>
+      <c r="I155" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="J155" s="29"/>
     </row>
     <row r="156" spans="1:10">
-      <c r="A156" s="29"/>
-      <c r="B156" s="29"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="29"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="29"/>
-      <c r="G156" s="29"/>
+      <c r="A156" s="28">
+        <v>155</v>
+      </c>
+      <c r="B156" s="31">
+        <v>18580</v>
+      </c>
+      <c r="C156" s="28">
+        <v>0</v>
+      </c>
+      <c r="D156" s="28">
+        <v>2</v>
+      </c>
+      <c r="E156" s="28">
+        <v>3</v>
+      </c>
+      <c r="F156" s="28">
+        <v>0</v>
+      </c>
+      <c r="G156" s="28">
+        <v>7</v>
+      </c>
       <c r="H156" s="29"/>
-      <c r="I156" s="29"/>
+      <c r="I156" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="J156" s="29"/>
     </row>
     <row r="157" spans="1:10">
-      <c r="A157" s="29"/>
-      <c r="B157" s="29"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="29"/>
-      <c r="E157" s="29"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="29"/>
+      <c r="A157" s="28">
+        <v>156</v>
+      </c>
+      <c r="B157" s="31">
+        <v>18740</v>
+      </c>
+      <c r="C157" s="28">
+        <v>3</v>
+      </c>
+      <c r="D157" s="28">
+        <v>1</v>
+      </c>
+      <c r="E157" s="28">
+        <v>3</v>
+      </c>
+      <c r="F157" s="28">
+        <v>0</v>
+      </c>
+      <c r="G157" s="28">
+        <v>6</v>
+      </c>
       <c r="H157" s="29"/>
-      <c r="I157" s="29"/>
+      <c r="I157" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="J157" s="29"/>
     </row>
     <row r="158" spans="1:10">
-      <c r="A158" s="29"/>
-      <c r="B158" s="29"/>
-      <c r="C158" s="29"/>
-      <c r="D158" s="29"/>
-      <c r="E158" s="29"/>
-      <c r="F158" s="29"/>
-      <c r="G158" s="29"/>
+      <c r="A158" s="28">
+        <v>157</v>
+      </c>
+      <c r="B158" s="31">
+        <v>18900</v>
+      </c>
+      <c r="C158" s="28">
+        <v>0</v>
+      </c>
+      <c r="D158" s="28">
+        <v>2</v>
+      </c>
+      <c r="E158" s="28">
+        <v>0</v>
+      </c>
+      <c r="F158" s="28">
+        <v>1</v>
+      </c>
+      <c r="G158" s="28">
+        <v>5</v>
+      </c>
       <c r="H158" s="29"/>
-      <c r="I158" s="29"/>
+      <c r="I158" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="J158" s="29"/>
     </row>
     <row r="159" spans="1:10">
-      <c r="A159" s="29"/>
-      <c r="B159" s="29"/>
-      <c r="C159" s="29"/>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="29"/>
-      <c r="G159" s="29"/>
+      <c r="A159" s="28">
+        <v>158</v>
+      </c>
+      <c r="B159" s="31">
+        <v>19060</v>
+      </c>
+      <c r="C159" s="28">
+        <v>0</v>
+      </c>
+      <c r="D159" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E159" s="28">
+        <v>0</v>
+      </c>
+      <c r="F159" s="28">
+        <v>0</v>
+      </c>
+      <c r="G159" s="28">
+        <v>3</v>
+      </c>
       <c r="H159" s="29"/>
-      <c r="I159" s="29"/>
+      <c r="I159" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="J159" s="29"/>
     </row>
     <row r="160" spans="1:10">
-      <c r="A160" s="29"/>
-      <c r="B160" s="29"/>
-      <c r="C160" s="29"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29"/>
+      <c r="A160" s="28">
+        <v>159</v>
+      </c>
+      <c r="B160" s="31">
+        <v>19220</v>
+      </c>
+      <c r="C160" s="28">
+        <v>0</v>
+      </c>
+      <c r="D160" s="28">
+        <v>2</v>
+      </c>
+      <c r="E160" s="28">
+        <v>3</v>
+      </c>
+      <c r="F160" s="28">
+        <v>0</v>
+      </c>
+      <c r="G160" s="28">
+        <v>7</v>
+      </c>
       <c r="H160" s="29"/>
-      <c r="I160" s="29"/>
+      <c r="I160" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="J160" s="29"/>
     </row>
     <row r="161" spans="1:10">
-      <c r="A161" s="29"/>
-      <c r="B161" s="29"/>
-      <c r="C161" s="29"/>
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="29"/>
+      <c r="A161" s="28">
+        <v>160</v>
+      </c>
+      <c r="B161" s="31">
+        <v>19380</v>
+      </c>
+      <c r="C161" s="28">
+        <v>3</v>
+      </c>
+      <c r="D161" s="28">
+        <v>1</v>
+      </c>
+      <c r="E161" s="28">
+        <v>3</v>
+      </c>
+      <c r="F161" s="28">
+        <v>0</v>
+      </c>
+      <c r="G161" s="28">
+        <v>6</v>
+      </c>
       <c r="H161" s="29"/>
-      <c r="I161" s="29"/>
+      <c r="I161" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="J161" s="29"/>
     </row>
     <row r="162" spans="1:10">
-      <c r="A162" s="29"/>
-      <c r="B162" s="29"/>
-      <c r="C162" s="29"/>
-      <c r="D162" s="29"/>
-      <c r="E162" s="29"/>
-      <c r="F162" s="29"/>
-      <c r="G162" s="29"/>
+      <c r="A162" s="28">
+        <v>161</v>
+      </c>
+      <c r="B162" s="31">
+        <v>19540</v>
+      </c>
+      <c r="C162" s="28">
+        <v>0</v>
+      </c>
+      <c r="D162" s="28">
+        <v>2</v>
+      </c>
+      <c r="E162" s="28">
+        <v>0</v>
+      </c>
+      <c r="F162" s="28">
+        <v>2</v>
+      </c>
+      <c r="G162" s="28">
+        <v>5</v>
+      </c>
       <c r="H162" s="29"/>
-      <c r="I162" s="29"/>
+      <c r="I162" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="J162" s="29"/>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="29"/>
-      <c r="B163" s="29"/>
-      <c r="C163" s="29"/>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="29"/>
+      <c r="A163" s="28">
+        <v>162</v>
+      </c>
+      <c r="B163" s="31">
+        <v>19700</v>
+      </c>
+      <c r="C163" s="28">
+        <v>0</v>
+      </c>
+      <c r="D163" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E163" s="28">
+        <v>0</v>
+      </c>
+      <c r="F163" s="28">
+        <v>0</v>
+      </c>
+      <c r="G163" s="28">
+        <v>3</v>
+      </c>
       <c r="H163" s="29"/>
-      <c r="I163" s="29"/>
+      <c r="I163" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="J163" s="29"/>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="29"/>
-      <c r="B164" s="29"/>
-      <c r="C164" s="29"/>
-      <c r="D164" s="29"/>
-      <c r="E164" s="29"/>
-      <c r="F164" s="29"/>
-      <c r="G164" s="29"/>
+      <c r="A164" s="28">
+        <v>163</v>
+      </c>
+      <c r="B164" s="31">
+        <v>19860</v>
+      </c>
+      <c r="C164" s="28">
+        <v>0</v>
+      </c>
+      <c r="D164" s="28">
+        <v>2</v>
+      </c>
+      <c r="E164" s="28">
+        <v>3</v>
+      </c>
+      <c r="F164" s="28">
+        <v>0</v>
+      </c>
+      <c r="G164" s="28">
+        <v>7</v>
+      </c>
       <c r="H164" s="29"/>
-      <c r="I164" s="29"/>
+      <c r="I164" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="J164" s="29"/>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="29"/>
-      <c r="B165" s="29"/>
-      <c r="C165" s="29"/>
-      <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="29"/>
-      <c r="G165" s="29"/>
+      <c r="A165" s="28">
+        <v>164</v>
+      </c>
+      <c r="B165" s="31">
+        <v>20020</v>
+      </c>
+      <c r="C165" s="28">
+        <v>3</v>
+      </c>
+      <c r="D165" s="28">
+        <v>1</v>
+      </c>
+      <c r="E165" s="28">
+        <v>3</v>
+      </c>
+      <c r="F165" s="28">
+        <v>0</v>
+      </c>
+      <c r="G165" s="28">
+        <v>6</v>
+      </c>
       <c r="H165" s="29"/>
-      <c r="I165" s="29"/>
+      <c r="I165" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="J165" s="29"/>
     </row>
     <row r="166" spans="1:10">
-      <c r="A166" s="29"/>
-      <c r="B166" s="29"/>
-      <c r="C166" s="29"/>
-      <c r="D166" s="29"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="29"/>
-      <c r="G166" s="29"/>
+      <c r="A166" s="28">
+        <v>165</v>
+      </c>
+      <c r="B166" s="31">
+        <v>20180</v>
+      </c>
+      <c r="C166" s="28">
+        <v>0</v>
+      </c>
+      <c r="D166" s="28">
+        <v>2</v>
+      </c>
+      <c r="E166" s="28">
+        <v>0</v>
+      </c>
+      <c r="F166" s="28">
+        <v>1</v>
+      </c>
+      <c r="G166" s="28">
+        <v>5</v>
+      </c>
       <c r="H166" s="29"/>
-      <c r="I166" s="29"/>
+      <c r="I166" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="J166" s="29"/>
     </row>
     <row r="167" spans="1:10">
-      <c r="A167" s="29"/>
-      <c r="B167" s="29"/>
-      <c r="C167" s="29"/>
-      <c r="D167" s="29"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="29"/>
+      <c r="A167" s="28">
+        <v>166</v>
+      </c>
+      <c r="B167" s="31">
+        <v>20340</v>
+      </c>
+      <c r="C167" s="28">
+        <v>0</v>
+      </c>
+      <c r="D167" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E167" s="28">
+        <v>0</v>
+      </c>
+      <c r="F167" s="28">
+        <v>0</v>
+      </c>
+      <c r="G167" s="28">
+        <v>3</v>
+      </c>
       <c r="H167" s="29"/>
-      <c r="I167" s="29"/>
+      <c r="I167" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="J167" s="29"/>
     </row>
     <row r="168" spans="1:10">
-      <c r="A168" s="29"/>
-      <c r="B168" s="29"/>
-      <c r="C168" s="29"/>
-      <c r="D168" s="29"/>
-      <c r="E168" s="29"/>
-      <c r="F168" s="29"/>
-      <c r="G168" s="29"/>
+      <c r="A168" s="28">
+        <v>167</v>
+      </c>
+      <c r="B168" s="31">
+        <v>20500</v>
+      </c>
+      <c r="C168" s="28">
+        <v>0</v>
+      </c>
+      <c r="D168" s="28">
+        <v>2</v>
+      </c>
+      <c r="E168" s="28">
+        <v>3</v>
+      </c>
+      <c r="F168" s="28">
+        <v>0</v>
+      </c>
+      <c r="G168" s="28">
+        <v>7</v>
+      </c>
       <c r="H168" s="29"/>
-      <c r="I168" s="29"/>
+      <c r="I168" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="J168" s="29"/>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="29"/>
-      <c r="B169" s="29"/>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="29"/>
-      <c r="G169" s="29"/>
+      <c r="A169" s="28">
+        <v>168</v>
+      </c>
+      <c r="B169" s="31">
+        <v>20660</v>
+      </c>
+      <c r="C169" s="28">
+        <v>3</v>
+      </c>
+      <c r="D169" s="28">
+        <v>1</v>
+      </c>
+      <c r="E169" s="28">
+        <v>3</v>
+      </c>
+      <c r="F169" s="28">
+        <v>0</v>
+      </c>
+      <c r="G169" s="28">
+        <v>6</v>
+      </c>
       <c r="H169" s="29"/>
-      <c r="I169" s="29"/>
+      <c r="I169" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="J169" s="29"/>
     </row>
     <row r="170" spans="1:10">
@@ -22431,8 +22890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1AE5B8-FC30-DB42-94D7-8D4817337B25}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="O142" sqref="O142"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -22520,8 +22979,8 @@
         <v>6</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="28" t="s">
-        <v>77</v>
+      <c r="I3" s="30" t="s">
+        <v>101</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="29">
@@ -22784,7 +23243,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" s="28">
         <v>1</v>
@@ -22814,7 +23273,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="28">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C13" s="28">
         <v>0</v>
@@ -22837,7 +23296,7 @@
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="29">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -22845,7 +23304,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="28">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C14" s="28">
         <v>0</v>
@@ -22868,7 +23327,7 @@
       </c>
       <c r="J14" s="29"/>
       <c r="K14" s="29">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -22876,7 +23335,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="28">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C15" s="28">
         <v>0</v>
@@ -22899,7 +23358,7 @@
       </c>
       <c r="J15" s="29"/>
       <c r="K15" s="29">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -22907,16 +23366,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="28">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C16" s="28">
         <v>0</v>
       </c>
       <c r="D16" s="28">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E16" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="28">
         <v>0</v>
@@ -22926,11 +23385,11 @@
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="28" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="J16" s="29"/>
       <c r="K16" s="29">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -22938,7 +23397,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="28">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C17" s="28">
         <v>0</v>
@@ -22961,7 +23420,7 @@
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="29">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -22969,7 +23428,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="28">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C18" s="28">
         <v>0</v>
@@ -22992,7 +23451,7 @@
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="29">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -23000,7 +23459,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="28">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C19" s="28">
         <v>0</v>
@@ -23023,7 +23482,7 @@
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="29">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -23031,7 +23490,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="28">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C20" s="28">
         <v>0</v>
@@ -23054,7 +23513,7 @@
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="29">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -23062,7 +23521,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="28">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="C21" s="28">
         <v>0</v>
@@ -23085,7 +23544,7 @@
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="29">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -23093,7 +23552,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="28">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="C22" s="28">
         <v>3</v>
@@ -23120,7 +23579,7 @@
         <v>135</v>
       </c>
       <c r="K22" s="29">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -23128,7 +23587,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="28">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C23" s="28">
         <v>0</v>
@@ -23159,7 +23618,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="28">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="C24" s="28">
         <v>0</v>
@@ -23190,7 +23649,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="28">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="C25" s="28">
         <v>0</v>
@@ -23221,16 +23680,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="28">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="C26" s="28">
         <v>0</v>
       </c>
       <c r="D26" s="28">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E26" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="28">
         <v>0</v>
@@ -23240,7 +23699,7 @@
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J26" s="29"/>
       <c r="K26" s="29">
@@ -23252,7 +23711,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="28">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="C27" s="28">
         <v>0</v>
@@ -23275,7 +23734,7 @@
       </c>
       <c r="J27" s="29"/>
       <c r="K27" s="29">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -23283,7 +23742,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="28">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="C28" s="28">
         <v>0</v>
@@ -23306,7 +23765,7 @@
       </c>
       <c r="J28" s="29"/>
       <c r="K28" s="29">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -23314,7 +23773,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="28">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="C29" s="28">
         <v>0</v>
@@ -23337,7 +23796,7 @@
       </c>
       <c r="J29" s="29"/>
       <c r="K29" s="29">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -23345,7 +23804,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="28">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C30" s="28">
         <v>0</v>
@@ -23368,7 +23827,7 @@
       </c>
       <c r="J30" s="29"/>
       <c r="K30" s="29">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -23399,7 +23858,7 @@
       </c>
       <c r="J31" s="29"/>
       <c r="K31" s="29">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -23407,10 +23866,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="28">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C32" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D32" s="28">
         <v>1</v>
@@ -23432,7 +23891,7 @@
       </c>
       <c r="J32" s="29"/>
       <c r="K32" s="29">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -23440,7 +23899,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="28">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="C33" s="28">
         <v>0</v>
@@ -23463,7 +23922,7 @@
       </c>
       <c r="J33" s="29"/>
       <c r="K33" s="29">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -23471,7 +23930,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="28">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="C34" s="28">
         <v>0</v>
@@ -23494,7 +23953,7 @@
       </c>
       <c r="J34" s="29"/>
       <c r="K34" s="29">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -23502,7 +23961,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="28">
-        <v>520</v>
+        <v>590</v>
       </c>
       <c r="C35" s="28">
         <v>0</v>
@@ -23525,7 +23984,7 @@
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="29">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -23533,16 +23992,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="28">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="C36" s="28">
         <v>0</v>
       </c>
       <c r="D36" s="28">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E36" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="28">
         <v>0</v>
@@ -23552,11 +24011,11 @@
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="28" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="J36" s="29"/>
       <c r="K36" s="29">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -23564,7 +24023,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="28">
-        <v>580</v>
+        <v>710</v>
       </c>
       <c r="C37" s="28">
         <v>0</v>
@@ -23587,7 +24046,7 @@
       </c>
       <c r="J37" s="29"/>
       <c r="K37" s="29">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -23595,7 +24054,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="28">
-        <v>630</v>
+        <v>770</v>
       </c>
       <c r="C38" s="28">
         <v>0</v>
@@ -23618,7 +24077,7 @@
       </c>
       <c r="J38" s="29"/>
       <c r="K38" s="29">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -23626,7 +24085,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="28">
-        <v>680</v>
+        <v>840</v>
       </c>
       <c r="C39" s="28">
         <v>0</v>
@@ -23649,7 +24108,7 @@
       </c>
       <c r="J39" s="29"/>
       <c r="K39" s="29">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -23657,7 +24116,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="28">
-        <v>730</v>
+        <v>910</v>
       </c>
       <c r="C40" s="28">
         <v>0</v>
@@ -23680,7 +24139,7 @@
       </c>
       <c r="J40" s="29"/>
       <c r="K40" s="29">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -23688,7 +24147,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="28">
-        <v>780</v>
+        <v>980</v>
       </c>
       <c r="C41" s="28">
         <v>0</v>
@@ -23711,7 +24170,7 @@
       </c>
       <c r="J41" s="29"/>
       <c r="K41" s="29">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -23719,16 +24178,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="28">
-        <v>830</v>
+        <v>1050</v>
       </c>
       <c r="C42" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" s="28">
         <v>1</v>
       </c>
       <c r="E42" s="28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F42" s="28">
         <v>0</v>
@@ -23737,12 +24196,12 @@
         <v>6</v>
       </c>
       <c r="H42" s="29"/>
-      <c r="I42" s="28" t="s">
-        <v>102</v>
+      <c r="I42" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="J42" s="29"/>
       <c r="K42" s="29">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -23750,7 +24209,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="28">
-        <v>890</v>
+        <v>1130</v>
       </c>
       <c r="C43" s="28">
         <v>0</v>
@@ -23773,7 +24232,7 @@
       </c>
       <c r="J43" s="29"/>
       <c r="K43" s="29">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -23781,7 +24240,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="28">
-        <v>950</v>
+        <v>1210</v>
       </c>
       <c r="C44" s="28">
         <v>0</v>
@@ -23804,7 +24263,7 @@
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="29">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -23812,7 +24271,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="28">
-        <v>1010</v>
+        <v>1290</v>
       </c>
       <c r="C45" s="28">
         <v>0</v>
@@ -23835,7 +24294,7 @@
       </c>
       <c r="J45" s="29"/>
       <c r="K45" s="29">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -23843,16 +24302,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="28">
-        <v>1070</v>
+        <v>1370</v>
       </c>
       <c r="C46" s="28">
         <v>0</v>
       </c>
       <c r="D46" s="28">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E46" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="28">
         <v>0</v>
@@ -23862,11 +24321,11 @@
       </c>
       <c r="H46" s="29"/>
       <c r="I46" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J46" s="29"/>
       <c r="K46" s="29">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -23874,7 +24333,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="28">
-        <v>1130</v>
+        <v>1460</v>
       </c>
       <c r="C47" s="28">
         <v>0</v>
@@ -23897,7 +24356,7 @@
       </c>
       <c r="J47" s="29"/>
       <c r="K47" s="29">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -23905,7 +24364,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="28">
-        <v>1190</v>
+        <v>1550</v>
       </c>
       <c r="C48" s="28">
         <v>0</v>
@@ -23928,7 +24387,7 @@
       </c>
       <c r="J48" s="29"/>
       <c r="K48" s="29">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -23936,7 +24395,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="28">
-        <v>1250</v>
+        <v>1640</v>
       </c>
       <c r="C49" s="28">
         <v>0</v>
@@ -23959,7 +24418,7 @@
       </c>
       <c r="J49" s="29"/>
       <c r="K49" s="29">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -23967,7 +24426,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="28">
-        <v>1310</v>
+        <v>1740</v>
       </c>
       <c r="C50" s="28">
         <v>0</v>
@@ -23990,7 +24449,7 @@
       </c>
       <c r="J50" s="29"/>
       <c r="K50" s="29">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -23998,7 +24457,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="28">
-        <v>1370</v>
+        <v>1840</v>
       </c>
       <c r="C51" s="28">
         <v>0</v>
@@ -24021,7 +24480,7 @@
       </c>
       <c r="J51" s="29"/>
       <c r="K51" s="29">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -24029,7 +24488,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="28">
-        <v>1430</v>
+        <v>1940</v>
       </c>
       <c r="C52" s="28">
         <v>3</v>
@@ -24038,7 +24497,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F52" s="28">
         <v>0</v>
@@ -24047,14 +24506,14 @@
         <v>6</v>
       </c>
       <c r="H52" s="29"/>
-      <c r="I52" s="28" t="s">
-        <v>117</v>
+      <c r="I52" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="J52" s="29" t="s">
         <v>136</v>
       </c>
       <c r="K52" s="29">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -24062,10 +24521,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="28">
-        <v>1550</v>
+        <v>2100</v>
       </c>
       <c r="C53" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D53" s="28">
         <v>1</v>
@@ -24085,7 +24544,7 @@
       </c>
       <c r="J53" s="29"/>
       <c r="K53" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -24093,7 +24552,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="28">
-        <v>1670</v>
+        <v>2260</v>
       </c>
       <c r="C54" s="28">
         <v>0</v>
@@ -24116,7 +24575,7 @@
       </c>
       <c r="J54" s="29"/>
       <c r="K54" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -24124,7 +24583,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="28">
-        <v>1790</v>
+        <v>2420</v>
       </c>
       <c r="C55" s="28">
         <v>0</v>
@@ -24147,7 +24606,7 @@
       </c>
       <c r="J55" s="29"/>
       <c r="K55" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -24155,7 +24614,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="28">
-        <v>1910</v>
+        <v>2580</v>
       </c>
       <c r="C56" s="28">
         <v>0</v>
@@ -24178,7 +24637,7 @@
       </c>
       <c r="J56" s="29"/>
       <c r="K56" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -24186,10 +24645,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="28">
-        <v>2030</v>
+        <v>2740</v>
       </c>
       <c r="C57" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D57" s="28">
         <v>1</v>
@@ -24209,7 +24668,7 @@
       </c>
       <c r="J57" s="29"/>
       <c r="K57" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -24217,7 +24676,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="28">
-        <v>2150</v>
+        <v>2900</v>
       </c>
       <c r="C58" s="28">
         <v>0</v>
@@ -24240,7 +24699,7 @@
       </c>
       <c r="J58" s="29"/>
       <c r="K58" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -24248,7 +24707,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="28">
-        <v>2270</v>
+        <v>3060</v>
       </c>
       <c r="C59" s="28">
         <v>0</v>
@@ -24271,7 +24730,7 @@
       </c>
       <c r="J59" s="29"/>
       <c r="K59" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -24279,7 +24738,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="28">
-        <v>2390</v>
+        <v>3220</v>
       </c>
       <c r="C60" s="28">
         <v>0</v>
@@ -24302,7 +24761,7 @@
       </c>
       <c r="J60" s="29"/>
       <c r="K60" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -24310,10 +24769,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="28">
-        <v>2510</v>
+        <v>3380</v>
       </c>
       <c r="C61" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D61" s="28">
         <v>1</v>
@@ -24333,7 +24792,7 @@
       </c>
       <c r="J61" s="29"/>
       <c r="K61" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -24341,7 +24800,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="28">
-        <v>2630</v>
+        <v>3540</v>
       </c>
       <c r="C62" s="28">
         <v>0</v>
@@ -24364,7 +24823,7 @@
       </c>
       <c r="J62" s="29"/>
       <c r="K62" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -24372,7 +24831,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="28">
-        <v>2750</v>
+        <v>3700</v>
       </c>
       <c r="C63" s="28">
         <v>0</v>
@@ -24395,7 +24854,7 @@
       </c>
       <c r="J63" s="29"/>
       <c r="K63" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -24403,7 +24862,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="28">
-        <v>2870</v>
+        <v>3860</v>
       </c>
       <c r="C64" s="28">
         <v>0</v>
@@ -24426,7 +24885,7 @@
       </c>
       <c r="J64" s="29"/>
       <c r="K64" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -24434,10 +24893,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="28">
-        <v>2990</v>
+        <v>4020</v>
       </c>
       <c r="C65" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D65" s="28">
         <v>1</v>
@@ -24457,7 +24916,7 @@
       </c>
       <c r="J65" s="29"/>
       <c r="K65" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -24465,7 +24924,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="28">
-        <v>3110</v>
+        <v>4180</v>
       </c>
       <c r="C66" s="28">
         <v>0</v>
@@ -24488,7 +24947,7 @@
       </c>
       <c r="J66" s="29"/>
       <c r="K66" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -24496,7 +24955,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="28">
-        <v>3230</v>
+        <v>4340</v>
       </c>
       <c r="C67" s="28">
         <v>0</v>
@@ -24519,7 +24978,7 @@
       </c>
       <c r="J67" s="29"/>
       <c r="K67" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -24527,7 +24986,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="28">
-        <v>3350</v>
+        <v>4500</v>
       </c>
       <c r="C68" s="28">
         <v>0</v>
@@ -24550,7 +25009,7 @@
       </c>
       <c r="J68" s="29"/>
       <c r="K68" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -24558,10 +25017,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="28">
-        <v>3470</v>
+        <v>4660</v>
       </c>
       <c r="C69" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D69" s="28">
         <v>1</v>
@@ -24581,7 +25040,7 @@
       </c>
       <c r="J69" s="29"/>
       <c r="K69" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -24589,7 +25048,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="28">
-        <v>3590</v>
+        <v>4820</v>
       </c>
       <c r="C70" s="28">
         <v>0</v>
@@ -24612,7 +25071,7 @@
       </c>
       <c r="J70" s="29"/>
       <c r="K70" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -24620,7 +25079,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="28">
-        <v>3710</v>
+        <v>4980</v>
       </c>
       <c r="C71" s="28">
         <v>0</v>
@@ -24643,7 +25102,7 @@
       </c>
       <c r="J71" s="29"/>
       <c r="K71" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -24651,7 +25110,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="28">
-        <v>3830</v>
+        <v>5140</v>
       </c>
       <c r="C72" s="28">
         <v>0</v>
@@ -24674,7 +25133,7 @@
       </c>
       <c r="J72" s="29"/>
       <c r="K72" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -24682,10 +25141,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="28">
-        <v>3950</v>
+        <v>5300</v>
       </c>
       <c r="C73" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D73" s="28">
         <v>1</v>
@@ -24705,7 +25164,7 @@
       </c>
       <c r="J73" s="29"/>
       <c r="K73" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -24713,7 +25172,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="28">
-        <v>4070</v>
+        <v>5460</v>
       </c>
       <c r="C74" s="28">
         <v>0</v>
@@ -24736,7 +25195,7 @@
       </c>
       <c r="J74" s="29"/>
       <c r="K74" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -24744,7 +25203,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="28">
-        <v>4190</v>
+        <v>5620</v>
       </c>
       <c r="C75" s="28">
         <v>0</v>
@@ -24767,7 +25226,7 @@
       </c>
       <c r="J75" s="29"/>
       <c r="K75" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -24775,7 +25234,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="28">
-        <v>4310</v>
+        <v>5780</v>
       </c>
       <c r="C76" s="28">
         <v>0</v>
@@ -24798,7 +25257,7 @@
       </c>
       <c r="J76" s="29"/>
       <c r="K76" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -24806,10 +25265,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="28">
-        <v>4430</v>
+        <v>5940</v>
       </c>
       <c r="C77" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D77" s="28">
         <v>1</v>
@@ -24829,7 +25288,7 @@
       </c>
       <c r="J77" s="29"/>
       <c r="K77" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -24837,7 +25296,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="28">
-        <v>4550</v>
+        <v>6100</v>
       </c>
       <c r="C78" s="28">
         <v>0</v>
@@ -24860,7 +25319,7 @@
       </c>
       <c r="J78" s="29"/>
       <c r="K78" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -24868,7 +25327,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="28">
-        <v>4670</v>
+        <v>6260</v>
       </c>
       <c r="C79" s="28">
         <v>0</v>
@@ -24891,7 +25350,7 @@
       </c>
       <c r="J79" s="29"/>
       <c r="K79" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -24899,7 +25358,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="28">
-        <v>4790</v>
+        <v>6420</v>
       </c>
       <c r="C80" s="28">
         <v>0</v>
@@ -24922,7 +25381,7 @@
       </c>
       <c r="J80" s="29"/>
       <c r="K80" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -24930,10 +25389,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="28">
-        <v>4910</v>
+        <v>6580</v>
       </c>
       <c r="C81" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D81" s="28">
         <v>1</v>
@@ -24953,7 +25412,7 @@
       </c>
       <c r="J81" s="29"/>
       <c r="K81" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -24961,7 +25420,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="28">
-        <v>5030</v>
+        <v>6740</v>
       </c>
       <c r="C82" s="28">
         <v>0</v>
@@ -24984,7 +25443,7 @@
       </c>
       <c r="J82" s="29"/>
       <c r="K82" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -24992,7 +25451,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="28">
-        <v>5150</v>
+        <v>6900</v>
       </c>
       <c r="C83" s="28">
         <v>0</v>
@@ -25015,7 +25474,7 @@
       </c>
       <c r="J83" s="29"/>
       <c r="K83" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -25023,7 +25482,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="28">
-        <v>5270</v>
+        <v>7060</v>
       </c>
       <c r="C84" s="28">
         <v>0</v>
@@ -25046,7 +25505,7 @@
       </c>
       <c r="J84" s="29"/>
       <c r="K84" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -25054,10 +25513,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="28">
-        <v>5390</v>
+        <v>7220</v>
       </c>
       <c r="C85" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85" s="28">
         <v>1</v>
@@ -25077,7 +25536,7 @@
       </c>
       <c r="J85" s="29"/>
       <c r="K85" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -25085,7 +25544,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="28">
-        <v>5510</v>
+        <v>7380</v>
       </c>
       <c r="C86" s="28">
         <v>0</v>
@@ -25108,7 +25567,7 @@
       </c>
       <c r="J86" s="29"/>
       <c r="K86" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -25116,7 +25575,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="28">
-        <v>5630</v>
+        <v>7540</v>
       </c>
       <c r="C87" s="28">
         <v>0</v>
@@ -25139,7 +25598,7 @@
       </c>
       <c r="J87" s="29"/>
       <c r="K87" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -25147,7 +25606,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="28">
-        <v>5750</v>
+        <v>7700</v>
       </c>
       <c r="C88" s="28">
         <v>0</v>
@@ -25170,7 +25629,7 @@
       </c>
       <c r="J88" s="29"/>
       <c r="K88" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -25178,10 +25637,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="28">
-        <v>5870</v>
+        <v>7860</v>
       </c>
       <c r="C89" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D89" s="28">
         <v>1</v>
@@ -25201,7 +25660,7 @@
       </c>
       <c r="J89" s="29"/>
       <c r="K89" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -25209,7 +25668,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="28">
-        <v>5990</v>
+        <v>8020</v>
       </c>
       <c r="C90" s="28">
         <v>0</v>
@@ -25232,7 +25691,7 @@
       </c>
       <c r="J90" s="29"/>
       <c r="K90" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -25240,7 +25699,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="28">
-        <v>6110</v>
+        <v>8180</v>
       </c>
       <c r="C91" s="28">
         <v>0</v>
@@ -25263,7 +25722,7 @@
       </c>
       <c r="J91" s="29"/>
       <c r="K91" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -25271,7 +25730,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="28">
-        <v>6230</v>
+        <v>8340</v>
       </c>
       <c r="C92" s="28">
         <v>0</v>
@@ -25294,7 +25753,7 @@
       </c>
       <c r="J92" s="29"/>
       <c r="K92" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -25302,10 +25761,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="28">
-        <v>6350</v>
+        <v>8500</v>
       </c>
       <c r="C93" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D93" s="28">
         <v>1</v>
@@ -25325,7 +25784,7 @@
       </c>
       <c r="J93" s="29"/>
       <c r="K93" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -25333,7 +25792,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="28">
-        <v>6470</v>
+        <v>8660</v>
       </c>
       <c r="C94" s="28">
         <v>0</v>
@@ -25356,7 +25815,7 @@
       </c>
       <c r="J94" s="29"/>
       <c r="K94" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -25364,7 +25823,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="28">
-        <v>6590</v>
+        <v>8820</v>
       </c>
       <c r="C95" s="28">
         <v>0</v>
@@ -25387,7 +25846,7 @@
       </c>
       <c r="J95" s="29"/>
       <c r="K95" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -25395,7 +25854,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="28">
-        <v>6710</v>
+        <v>8980</v>
       </c>
       <c r="C96" s="28">
         <v>0</v>
@@ -25418,7 +25877,7 @@
       </c>
       <c r="J96" s="29"/>
       <c r="K96" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -25426,10 +25885,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="28">
-        <v>6830</v>
+        <v>9140</v>
       </c>
       <c r="C97" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D97" s="28">
         <v>1</v>
@@ -25449,7 +25908,7 @@
       </c>
       <c r="J97" s="29"/>
       <c r="K97" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -25457,7 +25916,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="28">
-        <v>6950</v>
+        <v>9300</v>
       </c>
       <c r="C98" s="28">
         <v>0</v>
@@ -25480,7 +25939,7 @@
       </c>
       <c r="J98" s="29"/>
       <c r="K98" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -25488,7 +25947,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="28">
-        <v>7070</v>
+        <v>9460</v>
       </c>
       <c r="C99" s="28">
         <v>0</v>
@@ -25511,7 +25970,7 @@
       </c>
       <c r="J99" s="29"/>
       <c r="K99" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -25519,7 +25978,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="28">
-        <v>7190</v>
+        <v>9620</v>
       </c>
       <c r="C100" s="28">
         <v>0</v>
@@ -25542,7 +26001,7 @@
       </c>
       <c r="J100" s="29"/>
       <c r="K100" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -25550,10 +26009,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="28">
-        <v>7310</v>
+        <v>9780</v>
       </c>
       <c r="C101" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D101" s="28">
         <v>1</v>
@@ -25573,7 +26032,7 @@
       </c>
       <c r="J101" s="29"/>
       <c r="K101" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -25581,7 +26040,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="28">
-        <v>7430</v>
+        <v>9940</v>
       </c>
       <c r="C102" s="28">
         <v>0</v>
@@ -25604,7 +26063,7 @@
       </c>
       <c r="J102" s="29"/>
       <c r="K102" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -25612,7 +26071,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="28">
-        <v>7550</v>
+        <v>10100</v>
       </c>
       <c r="C103" s="28">
         <v>0</v>
@@ -25635,7 +26094,7 @@
       </c>
       <c r="J103" s="29"/>
       <c r="K103" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -25643,7 +26102,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="28">
-        <v>7670</v>
+        <v>10260</v>
       </c>
       <c r="C104" s="28">
         <v>0</v>
@@ -25666,7 +26125,7 @@
       </c>
       <c r="J104" s="29"/>
       <c r="K104" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -25674,10 +26133,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="28">
-        <v>7790</v>
+        <v>10420</v>
       </c>
       <c r="C105" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D105" s="28">
         <v>1</v>
@@ -25697,7 +26156,7 @@
       </c>
       <c r="J105" s="29"/>
       <c r="K105" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -25705,7 +26164,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="28">
-        <v>7910</v>
+        <v>10580</v>
       </c>
       <c r="C106" s="28">
         <v>0</v>
@@ -25728,7 +26187,7 @@
       </c>
       <c r="J106" s="29"/>
       <c r="K106" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -25736,7 +26195,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="28">
-        <v>8030</v>
+        <v>10740</v>
       </c>
       <c r="C107" s="28">
         <v>0</v>
@@ -25759,7 +26218,7 @@
       </c>
       <c r="J107" s="29"/>
       <c r="K107" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -25767,7 +26226,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="28">
-        <v>8150</v>
+        <v>10900</v>
       </c>
       <c r="C108" s="28">
         <v>0</v>
@@ -25790,7 +26249,7 @@
       </c>
       <c r="J108" s="29"/>
       <c r="K108" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -25798,10 +26257,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="28">
-        <v>8270</v>
+        <v>11060</v>
       </c>
       <c r="C109" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D109" s="28">
         <v>1</v>
@@ -25821,7 +26280,7 @@
       </c>
       <c r="J109" s="29"/>
       <c r="K109" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -25829,7 +26288,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="28">
-        <v>8390</v>
+        <v>11220</v>
       </c>
       <c r="C110" s="28">
         <v>0</v>
@@ -25852,7 +26311,7 @@
       </c>
       <c r="J110" s="29"/>
       <c r="K110" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -25860,7 +26319,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="28">
-        <v>8510</v>
+        <v>11380</v>
       </c>
       <c r="C111" s="28">
         <v>0</v>
@@ -25883,7 +26342,7 @@
       </c>
       <c r="J111" s="29"/>
       <c r="K111" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -25891,7 +26350,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="28">
-        <v>8630</v>
+        <v>11540</v>
       </c>
       <c r="C112" s="28">
         <v>0</v>
@@ -25914,7 +26373,7 @@
       </c>
       <c r="J112" s="29"/>
       <c r="K112" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -25922,10 +26381,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="28">
-        <v>8750</v>
+        <v>11700</v>
       </c>
       <c r="C113" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D113" s="28">
         <v>1</v>
@@ -25945,7 +26404,7 @@
       </c>
       <c r="J113" s="29"/>
       <c r="K113" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -25953,7 +26412,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="28">
-        <v>8870</v>
+        <v>11860</v>
       </c>
       <c r="C114" s="28">
         <v>0</v>
@@ -25976,7 +26435,7 @@
       </c>
       <c r="J114" s="29"/>
       <c r="K114" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -25984,7 +26443,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="28">
-        <v>8990</v>
+        <v>12020</v>
       </c>
       <c r="C115" s="28">
         <v>0</v>
@@ -26007,7 +26466,7 @@
       </c>
       <c r="J115" s="29"/>
       <c r="K115" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -26015,7 +26474,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="28">
-        <v>9110</v>
+        <v>12180</v>
       </c>
       <c r="C116" s="28">
         <v>0</v>
@@ -26038,7 +26497,7 @@
       </c>
       <c r="J116" s="29"/>
       <c r="K116" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -26046,10 +26505,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="28">
-        <v>9230</v>
+        <v>12340</v>
       </c>
       <c r="C117" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D117" s="28">
         <v>1</v>
@@ -26069,7 +26528,7 @@
       </c>
       <c r="J117" s="29"/>
       <c r="K117" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -26077,7 +26536,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="28">
-        <v>9350</v>
+        <v>12500</v>
       </c>
       <c r="C118" s="28">
         <v>0</v>
@@ -26100,7 +26559,7 @@
       </c>
       <c r="J118" s="29"/>
       <c r="K118" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -26108,7 +26567,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="28">
-        <v>9470</v>
+        <v>12660</v>
       </c>
       <c r="C119" s="28">
         <v>0</v>
@@ -26131,7 +26590,7 @@
       </c>
       <c r="J119" s="29"/>
       <c r="K119" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -26139,7 +26598,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="28">
-        <v>9590</v>
+        <v>12820</v>
       </c>
       <c r="C120" s="28">
         <v>0</v>
@@ -26162,7 +26621,7 @@
       </c>
       <c r="J120" s="29"/>
       <c r="K120" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -26170,10 +26629,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="28">
-        <v>9710</v>
+        <v>12980</v>
       </c>
       <c r="C121" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D121" s="28">
         <v>1</v>
@@ -26193,7 +26652,7 @@
       </c>
       <c r="J121" s="29"/>
       <c r="K121" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -26201,7 +26660,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="28">
-        <v>9830</v>
+        <v>13140</v>
       </c>
       <c r="C122" s="28">
         <v>0</v>
@@ -26224,7 +26683,7 @@
       </c>
       <c r="J122" s="29"/>
       <c r="K122" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -26232,7 +26691,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="28">
-        <v>9950</v>
+        <v>13300</v>
       </c>
       <c r="C123" s="28">
         <v>0</v>
@@ -26255,7 +26714,7 @@
       </c>
       <c r="J123" s="29"/>
       <c r="K123" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -26263,7 +26722,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="28">
-        <v>10070</v>
+        <v>13460</v>
       </c>
       <c r="C124" s="28">
         <v>0</v>
@@ -26286,7 +26745,7 @@
       </c>
       <c r="J124" s="29"/>
       <c r="K124" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -26294,10 +26753,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="28">
-        <v>10190</v>
+        <v>13620</v>
       </c>
       <c r="C125" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D125" s="28">
         <v>1</v>
@@ -26317,7 +26776,7 @@
       </c>
       <c r="J125" s="29"/>
       <c r="K125" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -26325,7 +26784,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="28">
-        <v>10310</v>
+        <v>13780</v>
       </c>
       <c r="C126" s="28">
         <v>0</v>
@@ -26337,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="F126" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" s="28">
         <v>5</v>
@@ -26348,7 +26807,7 @@
       </c>
       <c r="J126" s="29"/>
       <c r="K126" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -26356,7 +26815,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="28">
-        <v>10430</v>
+        <v>13940</v>
       </c>
       <c r="C127" s="28">
         <v>0</v>
@@ -26379,7 +26838,7 @@
       </c>
       <c r="J127" s="29"/>
       <c r="K127" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -26387,7 +26846,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="28">
-        <v>10550</v>
+        <v>14100</v>
       </c>
       <c r="C128" s="28">
         <v>0</v>
@@ -26410,7 +26869,7 @@
       </c>
       <c r="J128" s="29"/>
       <c r="K128" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -26418,10 +26877,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="28">
-        <v>10670</v>
+        <v>14260</v>
       </c>
       <c r="C129" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D129" s="28">
         <v>1</v>
@@ -26441,7 +26900,7 @@
       </c>
       <c r="J129" s="29"/>
       <c r="K129" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -26449,7 +26908,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="28">
-        <v>10790</v>
+        <v>14420</v>
       </c>
       <c r="C130" s="28">
         <v>0</v>
@@ -26472,7 +26931,7 @@
       </c>
       <c r="J130" s="29"/>
       <c r="K130" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -26480,7 +26939,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="28">
-        <v>10910</v>
+        <v>14580</v>
       </c>
       <c r="C131" s="28">
         <v>0</v>
@@ -26503,7 +26962,7 @@
       </c>
       <c r="J131" s="29"/>
       <c r="K131" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -26511,7 +26970,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="28">
-        <v>11030</v>
+        <v>14740</v>
       </c>
       <c r="C132" s="28">
         <v>0</v>
@@ -26534,7 +26993,7 @@
       </c>
       <c r="J132" s="29"/>
       <c r="K132" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -26542,10 +27001,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="28">
-        <v>11150</v>
+        <v>14900</v>
       </c>
       <c r="C133" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D133" s="28">
         <v>1</v>
@@ -26565,7 +27024,7 @@
       </c>
       <c r="J133" s="29"/>
       <c r="K133" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -26573,7 +27032,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="28">
-        <v>11270</v>
+        <v>15060</v>
       </c>
       <c r="C134" s="28">
         <v>0</v>
@@ -26585,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="F134" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G134" s="28">
         <v>5</v>
@@ -26596,7 +27055,7 @@
       </c>
       <c r="J134" s="29"/>
       <c r="K134" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -26604,7 +27063,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="28">
-        <v>11390</v>
+        <v>15220</v>
       </c>
       <c r="C135" s="28">
         <v>0</v>
@@ -26627,7 +27086,7 @@
       </c>
       <c r="J135" s="29"/>
       <c r="K135" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -26635,7 +27094,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="28">
-        <v>11510</v>
+        <v>15380</v>
       </c>
       <c r="C136" s="28">
         <v>0</v>
@@ -26658,7 +27117,7 @@
       </c>
       <c r="J136" s="29"/>
       <c r="K136" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -26666,10 +27125,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="28">
-        <v>11630</v>
+        <v>15540</v>
       </c>
       <c r="C137" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D137" s="28">
         <v>1</v>
@@ -26689,7 +27148,7 @@
       </c>
       <c r="J137" s="29"/>
       <c r="K137" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -26697,7 +27156,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="28">
-        <v>11750</v>
+        <v>15700</v>
       </c>
       <c r="C138" s="28">
         <v>0</v>
@@ -26720,7 +27179,7 @@
       </c>
       <c r="J138" s="29"/>
       <c r="K138" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -26728,7 +27187,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="28">
-        <v>11870</v>
+        <v>15860</v>
       </c>
       <c r="C139" s="28">
         <v>0</v>
@@ -26751,7 +27210,7 @@
       </c>
       <c r="J139" s="29"/>
       <c r="K139" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -26759,7 +27218,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="28">
-        <v>11990</v>
+        <v>16020</v>
       </c>
       <c r="C140" s="28">
         <v>0</v>
@@ -26782,7 +27241,7 @@
       </c>
       <c r="J140" s="29"/>
       <c r="K140" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -26790,10 +27249,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="28">
-        <v>12110</v>
+        <v>16180</v>
       </c>
       <c r="C141" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D141" s="28">
         <v>1</v>
@@ -26813,372 +27272,819 @@
       </c>
       <c r="J141" s="29"/>
       <c r="K141" s="29">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="29"/>
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="29"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="29"/>
+      <c r="A142" s="28">
+        <v>141</v>
+      </c>
+      <c r="B142" s="31">
+        <v>16340</v>
+      </c>
+      <c r="C142" s="28">
+        <v>0</v>
+      </c>
+      <c r="D142" s="28">
+        <v>2</v>
+      </c>
+      <c r="E142" s="28">
+        <v>0</v>
+      </c>
+      <c r="F142" s="28">
+        <v>1</v>
+      </c>
+      <c r="G142" s="28">
+        <v>5</v>
+      </c>
       <c r="H142" s="29"/>
-      <c r="I142" s="29"/>
+      <c r="I142" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="J142" s="29"/>
       <c r="K142" s="29"/>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="29"/>
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="29"/>
+      <c r="A143" s="28">
+        <v>142</v>
+      </c>
+      <c r="B143" s="31">
+        <v>16500</v>
+      </c>
+      <c r="C143" s="28">
+        <v>0</v>
+      </c>
+      <c r="D143" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E143" s="28">
+        <v>0</v>
+      </c>
+      <c r="F143" s="28">
+        <v>0</v>
+      </c>
+      <c r="G143" s="28">
+        <v>3</v>
+      </c>
       <c r="H143" s="29"/>
-      <c r="I143" s="29"/>
+      <c r="I143" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="J143" s="29"/>
       <c r="K143" s="29"/>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="29"/>
-      <c r="B144" s="29"/>
-      <c r="C144" s="29"/>
-      <c r="D144" s="29"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="29"/>
-      <c r="G144" s="29"/>
+      <c r="A144" s="28">
+        <v>143</v>
+      </c>
+      <c r="B144" s="31">
+        <v>16660</v>
+      </c>
+      <c r="C144" s="28">
+        <v>0</v>
+      </c>
+      <c r="D144" s="28">
+        <v>2</v>
+      </c>
+      <c r="E144" s="28">
+        <v>3</v>
+      </c>
+      <c r="F144" s="28">
+        <v>0</v>
+      </c>
+      <c r="G144" s="28">
+        <v>7</v>
+      </c>
       <c r="H144" s="29"/>
-      <c r="I144" s="29"/>
+      <c r="I144" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="J144" s="29"/>
       <c r="K144" s="29"/>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="29"/>
-      <c r="B145" s="29"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
+      <c r="A145" s="28">
+        <v>144</v>
+      </c>
+      <c r="B145" s="31">
+        <v>16820</v>
+      </c>
+      <c r="C145" s="28">
+        <v>3</v>
+      </c>
+      <c r="D145" s="28">
+        <v>1</v>
+      </c>
+      <c r="E145" s="28">
+        <v>3</v>
+      </c>
+      <c r="F145" s="28">
+        <v>0</v>
+      </c>
+      <c r="G145" s="28">
+        <v>6</v>
+      </c>
       <c r="H145" s="29"/>
-      <c r="I145" s="29"/>
+      <c r="I145" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="J145" s="29"/>
       <c r="K145" s="29"/>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="29"/>
-      <c r="B146" s="29"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="29"/>
-      <c r="E146" s="29"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="29"/>
+      <c r="A146" s="28">
+        <v>145</v>
+      </c>
+      <c r="B146" s="31">
+        <v>16980</v>
+      </c>
+      <c r="C146" s="28">
+        <v>0</v>
+      </c>
+      <c r="D146" s="28">
+        <v>2</v>
+      </c>
+      <c r="E146" s="28">
+        <v>0</v>
+      </c>
+      <c r="F146" s="28">
+        <v>2</v>
+      </c>
+      <c r="G146" s="28">
+        <v>5</v>
+      </c>
       <c r="H146" s="29"/>
-      <c r="I146" s="29"/>
+      <c r="I146" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="J146" s="29"/>
       <c r="K146" s="29"/>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="29"/>
-      <c r="B147" s="29"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="29"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
+      <c r="A147" s="28">
+        <v>146</v>
+      </c>
+      <c r="B147" s="31">
+        <v>17140</v>
+      </c>
+      <c r="C147" s="28">
+        <v>0</v>
+      </c>
+      <c r="D147" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E147" s="28">
+        <v>0</v>
+      </c>
+      <c r="F147" s="28">
+        <v>0</v>
+      </c>
+      <c r="G147" s="28">
+        <v>3</v>
+      </c>
       <c r="H147" s="29"/>
-      <c r="I147" s="29"/>
+      <c r="I147" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="J147" s="29"/>
       <c r="K147" s="29"/>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="29"/>
-      <c r="B148" s="29"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
+      <c r="A148" s="28">
+        <v>147</v>
+      </c>
+      <c r="B148" s="31">
+        <v>17300</v>
+      </c>
+      <c r="C148" s="28">
+        <v>0</v>
+      </c>
+      <c r="D148" s="28">
+        <v>2</v>
+      </c>
+      <c r="E148" s="28">
+        <v>3</v>
+      </c>
+      <c r="F148" s="28">
+        <v>0</v>
+      </c>
+      <c r="G148" s="28">
+        <v>7</v>
+      </c>
       <c r="H148" s="29"/>
-      <c r="I148" s="29"/>
+      <c r="I148" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="J148" s="29"/>
       <c r="K148" s="29"/>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="29"/>
-      <c r="B149" s="29"/>
-      <c r="C149" s="29"/>
-      <c r="D149" s="29"/>
-      <c r="E149" s="29"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="29"/>
+      <c r="A149" s="28">
+        <v>148</v>
+      </c>
+      <c r="B149" s="31">
+        <v>17460</v>
+      </c>
+      <c r="C149" s="28">
+        <v>3</v>
+      </c>
+      <c r="D149" s="28">
+        <v>1</v>
+      </c>
+      <c r="E149" s="28">
+        <v>3</v>
+      </c>
+      <c r="F149" s="28">
+        <v>0</v>
+      </c>
+      <c r="G149" s="28">
+        <v>6</v>
+      </c>
       <c r="H149" s="29"/>
-      <c r="I149" s="29"/>
+      <c r="I149" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="J149" s="29"/>
       <c r="K149" s="29"/>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="29"/>
-      <c r="B150" s="29"/>
-      <c r="C150" s="29"/>
-      <c r="D150" s="29"/>
-      <c r="E150" s="29"/>
-      <c r="F150" s="29"/>
-      <c r="G150" s="29"/>
+      <c r="A150" s="28">
+        <v>149</v>
+      </c>
+      <c r="B150" s="31">
+        <v>17620</v>
+      </c>
+      <c r="C150" s="28">
+        <v>0</v>
+      </c>
+      <c r="D150" s="28">
+        <v>2</v>
+      </c>
+      <c r="E150" s="28">
+        <v>0</v>
+      </c>
+      <c r="F150" s="28">
+        <v>1</v>
+      </c>
+      <c r="G150" s="28">
+        <v>5</v>
+      </c>
       <c r="H150" s="29"/>
-      <c r="I150" s="29"/>
+      <c r="I150" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="J150" s="29"/>
       <c r="K150" s="29"/>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="29"/>
-      <c r="B151" s="29"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="29"/>
+      <c r="A151" s="28">
+        <v>150</v>
+      </c>
+      <c r="B151" s="31">
+        <v>17780</v>
+      </c>
+      <c r="C151" s="28">
+        <v>0</v>
+      </c>
+      <c r="D151" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E151" s="28">
+        <v>0</v>
+      </c>
+      <c r="F151" s="28">
+        <v>0</v>
+      </c>
+      <c r="G151" s="28">
+        <v>3</v>
+      </c>
       <c r="H151" s="29"/>
-      <c r="I151" s="29"/>
+      <c r="I151" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="J151" s="29"/>
       <c r="K151" s="29"/>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="29"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="29"/>
+      <c r="A152" s="28">
+        <v>151</v>
+      </c>
+      <c r="B152" s="31">
+        <v>17940</v>
+      </c>
+      <c r="C152" s="28">
+        <v>0</v>
+      </c>
+      <c r="D152" s="28">
+        <v>2</v>
+      </c>
+      <c r="E152" s="28">
+        <v>3</v>
+      </c>
+      <c r="F152" s="28">
+        <v>0</v>
+      </c>
+      <c r="G152" s="28">
+        <v>7</v>
+      </c>
       <c r="H152" s="29"/>
-      <c r="I152" s="29"/>
+      <c r="I152" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="J152" s="29"/>
       <c r="K152" s="29"/>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="29"/>
-      <c r="B153" s="29"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="29"/>
+      <c r="A153" s="28">
+        <v>152</v>
+      </c>
+      <c r="B153" s="31">
+        <v>18100</v>
+      </c>
+      <c r="C153" s="28">
+        <v>3</v>
+      </c>
+      <c r="D153" s="28">
+        <v>1</v>
+      </c>
+      <c r="E153" s="28">
+        <v>3</v>
+      </c>
+      <c r="F153" s="28">
+        <v>0</v>
+      </c>
+      <c r="G153" s="28">
+        <v>6</v>
+      </c>
       <c r="H153" s="29"/>
-      <c r="I153" s="29"/>
+      <c r="I153" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="J153" s="29"/>
       <c r="K153" s="29"/>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="29"/>
-      <c r="B154" s="29"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="29"/>
+      <c r="A154" s="28">
+        <v>153</v>
+      </c>
+      <c r="B154" s="31">
+        <v>18260</v>
+      </c>
+      <c r="C154" s="28">
+        <v>0</v>
+      </c>
+      <c r="D154" s="28">
+        <v>2</v>
+      </c>
+      <c r="E154" s="28">
+        <v>0</v>
+      </c>
+      <c r="F154" s="28">
+        <v>2</v>
+      </c>
+      <c r="G154" s="28">
+        <v>5</v>
+      </c>
       <c r="H154" s="29"/>
-      <c r="I154" s="29"/>
+      <c r="I154" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="J154" s="29"/>
       <c r="K154" s="29"/>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="29"/>
-      <c r="B155" s="29"/>
-      <c r="C155" s="29"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="29"/>
+      <c r="A155" s="28">
+        <v>154</v>
+      </c>
+      <c r="B155" s="31">
+        <v>18420</v>
+      </c>
+      <c r="C155" s="28">
+        <v>0</v>
+      </c>
+      <c r="D155" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E155" s="28">
+        <v>0</v>
+      </c>
+      <c r="F155" s="28">
+        <v>0</v>
+      </c>
+      <c r="G155" s="28">
+        <v>3</v>
+      </c>
       <c r="H155" s="29"/>
-      <c r="I155" s="29"/>
+      <c r="I155" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="J155" s="29"/>
       <c r="K155" s="29"/>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="29"/>
-      <c r="B156" s="29"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="29"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="29"/>
-      <c r="G156" s="29"/>
+      <c r="A156" s="28">
+        <v>155</v>
+      </c>
+      <c r="B156" s="31">
+        <v>18580</v>
+      </c>
+      <c r="C156" s="28">
+        <v>0</v>
+      </c>
+      <c r="D156" s="28">
+        <v>2</v>
+      </c>
+      <c r="E156" s="28">
+        <v>3</v>
+      </c>
+      <c r="F156" s="28">
+        <v>0</v>
+      </c>
+      <c r="G156" s="28">
+        <v>7</v>
+      </c>
       <c r="H156" s="29"/>
-      <c r="I156" s="29"/>
+      <c r="I156" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="J156" s="29"/>
       <c r="K156" s="29"/>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="29"/>
-      <c r="B157" s="29"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="29"/>
-      <c r="E157" s="29"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="29"/>
+      <c r="A157" s="28">
+        <v>156</v>
+      </c>
+      <c r="B157" s="31">
+        <v>18740</v>
+      </c>
+      <c r="C157" s="28">
+        <v>3</v>
+      </c>
+      <c r="D157" s="28">
+        <v>1</v>
+      </c>
+      <c r="E157" s="28">
+        <v>3</v>
+      </c>
+      <c r="F157" s="28">
+        <v>0</v>
+      </c>
+      <c r="G157" s="28">
+        <v>6</v>
+      </c>
       <c r="H157" s="29"/>
-      <c r="I157" s="29"/>
+      <c r="I157" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="J157" s="29"/>
       <c r="K157" s="29"/>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="29"/>
-      <c r="B158" s="29"/>
-      <c r="C158" s="29"/>
-      <c r="D158" s="29"/>
-      <c r="E158" s="29"/>
-      <c r="F158" s="29"/>
-      <c r="G158" s="29"/>
+      <c r="A158" s="28">
+        <v>157</v>
+      </c>
+      <c r="B158" s="31">
+        <v>18900</v>
+      </c>
+      <c r="C158" s="28">
+        <v>0</v>
+      </c>
+      <c r="D158" s="28">
+        <v>2</v>
+      </c>
+      <c r="E158" s="28">
+        <v>0</v>
+      </c>
+      <c r="F158" s="28">
+        <v>1</v>
+      </c>
+      <c r="G158" s="28">
+        <v>5</v>
+      </c>
       <c r="H158" s="29"/>
-      <c r="I158" s="29"/>
+      <c r="I158" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="J158" s="29"/>
       <c r="K158" s="29"/>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="29"/>
-      <c r="B159" s="29"/>
-      <c r="C159" s="29"/>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="29"/>
-      <c r="G159" s="29"/>
+      <c r="A159" s="28">
+        <v>158</v>
+      </c>
+      <c r="B159" s="31">
+        <v>19060</v>
+      </c>
+      <c r="C159" s="28">
+        <v>0</v>
+      </c>
+      <c r="D159" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E159" s="28">
+        <v>0</v>
+      </c>
+      <c r="F159" s="28">
+        <v>0</v>
+      </c>
+      <c r="G159" s="28">
+        <v>3</v>
+      </c>
       <c r="H159" s="29"/>
-      <c r="I159" s="29"/>
+      <c r="I159" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="J159" s="29"/>
       <c r="K159" s="29"/>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="29"/>
-      <c r="B160" s="29"/>
-      <c r="C160" s="29"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29"/>
+      <c r="A160" s="28">
+        <v>159</v>
+      </c>
+      <c r="B160" s="31">
+        <v>19220</v>
+      </c>
+      <c r="C160" s="28">
+        <v>0</v>
+      </c>
+      <c r="D160" s="28">
+        <v>2</v>
+      </c>
+      <c r="E160" s="28">
+        <v>3</v>
+      </c>
+      <c r="F160" s="28">
+        <v>0</v>
+      </c>
+      <c r="G160" s="28">
+        <v>7</v>
+      </c>
       <c r="H160" s="29"/>
-      <c r="I160" s="29"/>
+      <c r="I160" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="J160" s="29"/>
       <c r="K160" s="29"/>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="29"/>
-      <c r="B161" s="29"/>
-      <c r="C161" s="29"/>
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="29"/>
+      <c r="A161" s="28">
+        <v>160</v>
+      </c>
+      <c r="B161" s="31">
+        <v>19380</v>
+      </c>
+      <c r="C161" s="28">
+        <v>3</v>
+      </c>
+      <c r="D161" s="28">
+        <v>1</v>
+      </c>
+      <c r="E161" s="28">
+        <v>3</v>
+      </c>
+      <c r="F161" s="28">
+        <v>0</v>
+      </c>
+      <c r="G161" s="28">
+        <v>6</v>
+      </c>
       <c r="H161" s="29"/>
-      <c r="I161" s="29"/>
+      <c r="I161" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="J161" s="29"/>
       <c r="K161" s="29"/>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="29"/>
-      <c r="B162" s="29"/>
-      <c r="C162" s="29"/>
-      <c r="D162" s="29"/>
-      <c r="E162" s="29"/>
-      <c r="F162" s="29"/>
-      <c r="G162" s="29"/>
+      <c r="A162" s="28">
+        <v>161</v>
+      </c>
+      <c r="B162" s="31">
+        <v>19540</v>
+      </c>
+      <c r="C162" s="28">
+        <v>0</v>
+      </c>
+      <c r="D162" s="28">
+        <v>2</v>
+      </c>
+      <c r="E162" s="28">
+        <v>0</v>
+      </c>
+      <c r="F162" s="28">
+        <v>2</v>
+      </c>
+      <c r="G162" s="28">
+        <v>5</v>
+      </c>
       <c r="H162" s="29"/>
-      <c r="I162" s="29"/>
+      <c r="I162" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="J162" s="29"/>
       <c r="K162" s="29"/>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="29"/>
-      <c r="B163" s="29"/>
-      <c r="C163" s="29"/>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="29"/>
+      <c r="A163" s="28">
+        <v>162</v>
+      </c>
+      <c r="B163" s="31">
+        <v>19700</v>
+      </c>
+      <c r="C163" s="28">
+        <v>0</v>
+      </c>
+      <c r="D163" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E163" s="28">
+        <v>0</v>
+      </c>
+      <c r="F163" s="28">
+        <v>0</v>
+      </c>
+      <c r="G163" s="28">
+        <v>3</v>
+      </c>
       <c r="H163" s="29"/>
-      <c r="I163" s="29"/>
+      <c r="I163" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="J163" s="29"/>
       <c r="K163" s="29"/>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="29"/>
-      <c r="B164" s="29"/>
-      <c r="C164" s="29"/>
-      <c r="D164" s="29"/>
-      <c r="E164" s="29"/>
-      <c r="F164" s="29"/>
-      <c r="G164" s="29"/>
+      <c r="A164" s="28">
+        <v>163</v>
+      </c>
+      <c r="B164" s="31">
+        <v>19860</v>
+      </c>
+      <c r="C164" s="28">
+        <v>0</v>
+      </c>
+      <c r="D164" s="28">
+        <v>2</v>
+      </c>
+      <c r="E164" s="28">
+        <v>3</v>
+      </c>
+      <c r="F164" s="28">
+        <v>0</v>
+      </c>
+      <c r="G164" s="28">
+        <v>7</v>
+      </c>
       <c r="H164" s="29"/>
-      <c r="I164" s="29"/>
+      <c r="I164" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="J164" s="29"/>
       <c r="K164" s="29"/>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="29"/>
-      <c r="B165" s="29"/>
-      <c r="C165" s="29"/>
-      <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="29"/>
-      <c r="G165" s="29"/>
+      <c r="A165" s="28">
+        <v>164</v>
+      </c>
+      <c r="B165" s="31">
+        <v>20020</v>
+      </c>
+      <c r="C165" s="28">
+        <v>3</v>
+      </c>
+      <c r="D165" s="28">
+        <v>1</v>
+      </c>
+      <c r="E165" s="28">
+        <v>3</v>
+      </c>
+      <c r="F165" s="28">
+        <v>0</v>
+      </c>
+      <c r="G165" s="28">
+        <v>6</v>
+      </c>
       <c r="H165" s="29"/>
-      <c r="I165" s="29"/>
+      <c r="I165" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="J165" s="29"/>
       <c r="K165" s="29"/>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="29"/>
-      <c r="B166" s="29"/>
-      <c r="C166" s="29"/>
-      <c r="D166" s="29"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="29"/>
-      <c r="G166" s="29"/>
+      <c r="A166" s="28">
+        <v>165</v>
+      </c>
+      <c r="B166" s="31">
+        <v>20180</v>
+      </c>
+      <c r="C166" s="28">
+        <v>0</v>
+      </c>
+      <c r="D166" s="28">
+        <v>2</v>
+      </c>
+      <c r="E166" s="28">
+        <v>0</v>
+      </c>
+      <c r="F166" s="28">
+        <v>1</v>
+      </c>
+      <c r="G166" s="28">
+        <v>5</v>
+      </c>
       <c r="H166" s="29"/>
-      <c r="I166" s="29"/>
+      <c r="I166" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="J166" s="29"/>
       <c r="K166" s="29"/>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="29"/>
-      <c r="B167" s="29"/>
-      <c r="C167" s="29"/>
-      <c r="D167" s="29"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="29"/>
+      <c r="A167" s="28">
+        <v>166</v>
+      </c>
+      <c r="B167" s="31">
+        <v>20340</v>
+      </c>
+      <c r="C167" s="28">
+        <v>0</v>
+      </c>
+      <c r="D167" s="28">
+        <v>1500</v>
+      </c>
+      <c r="E167" s="28">
+        <v>0</v>
+      </c>
+      <c r="F167" s="28">
+        <v>0</v>
+      </c>
+      <c r="G167" s="28">
+        <v>3</v>
+      </c>
       <c r="H167" s="29"/>
-      <c r="I167" s="29"/>
+      <c r="I167" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="J167" s="29"/>
       <c r="K167" s="29"/>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="29"/>
-      <c r="B168" s="29"/>
-      <c r="C168" s="29"/>
-      <c r="D168" s="29"/>
-      <c r="E168" s="29"/>
-      <c r="F168" s="29"/>
-      <c r="G168" s="29"/>
+      <c r="A168" s="28">
+        <v>167</v>
+      </c>
+      <c r="B168" s="31">
+        <v>20500</v>
+      </c>
+      <c r="C168" s="28">
+        <v>0</v>
+      </c>
+      <c r="D168" s="28">
+        <v>2</v>
+      </c>
+      <c r="E168" s="28">
+        <v>3</v>
+      </c>
+      <c r="F168" s="28">
+        <v>0</v>
+      </c>
+      <c r="G168" s="28">
+        <v>7</v>
+      </c>
       <c r="H168" s="29"/>
-      <c r="I168" s="29"/>
+      <c r="I168" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="J168" s="29"/>
       <c r="K168" s="29"/>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="29"/>
-      <c r="B169" s="29"/>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="29"/>
-      <c r="G169" s="29"/>
+      <c r="A169" s="28">
+        <v>168</v>
+      </c>
+      <c r="B169" s="31">
+        <v>20660</v>
+      </c>
+      <c r="C169" s="28">
+        <v>3</v>
+      </c>
+      <c r="D169" s="28">
+        <v>1</v>
+      </c>
+      <c r="E169" s="28">
+        <v>3</v>
+      </c>
+      <c r="F169" s="28">
+        <v>0</v>
+      </c>
+      <c r="G169" s="28">
+        <v>6</v>
+      </c>
       <c r="H169" s="29"/>
-      <c r="I169" s="29"/>
+      <c r="I169" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="J169" s="29"/>
-      <c r="K169" s="29"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="29"/>
